--- a/Document/iOS/CocoaPods/CocoaPods安装与使用.xlsx
+++ b/Document/iOS/CocoaPods/CocoaPods安装与使用.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25280" windowHeight="15300" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="25280" windowHeight="15300" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Homebrew" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="321">
   <si>
     <t>安装RVM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -902,6 +902,159 @@
   </si>
   <si>
     <t>不要因为长时间"没反应"而取消,因为pod需要创建索引</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新建iOS工程,如TestCocoapods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.新建文件Podfile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在工程的目录下,即与.xcodeproj同一级的目录下新建Podfile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过以下方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 通过终端进入TestCocoapods目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 vi Podfile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform :ios, '7.0'</t>
+  </si>
+  <si>
+    <t>pod 'AFNetworking', '~&gt; 3.1.0'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    输入以下内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    备注:通过pod search AFNetworking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         在显示的目标版本中,拷贝pod 'AFNetworking'的那一句过来即可,注意那个箭头,不是横线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 pod install</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑好Podfile之后,执行命令 pod install</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会出现以下错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc:TestCocoapods samtsang$ pod install</t>
+  </si>
+  <si>
+    <t>Analyzing dependencies</t>
+  </si>
+  <si>
+    <t>[!] The dependency `AFNetworking (~&gt; 3.1.0)` is not used in any concrete target.</t>
+  </si>
+  <si>
+    <t>错误原始是说找不到库所需要用在的具体的项目,可以修改Podfile,设置target为所创建的项目的名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target "TestCocoapods" do</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Downloading dependencies</t>
+  </si>
+  <si>
+    <t>Installing AFNetworking (3.1.0)</t>
+  </si>
+  <si>
+    <t>Generating Pods project</t>
+  </si>
+  <si>
+    <t>Integrating client project</t>
+  </si>
+  <si>
+    <t>[!] Please close any current Xcode sessions and use `TestCocoapods.xcworkspace` for this project from now on.</t>
+  </si>
+  <si>
+    <t>Sending stats</t>
+  </si>
+  <si>
+    <t>Pod installation complete! There is 1 dependency from the Podfile and 1 total pod installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc:TestCocoapods samtsang$ </t>
+  </si>
+  <si>
+    <t>再次执行pod install命令,成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 打开工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当使用cocoapods之后,原来的工程目录下面多了一下几个文件和文件夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Podfile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Podfile.lock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCocoapods.xcworkspace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从3中pod install成功后的提示也很清楚,我们以后就通过这个新增的.xcworkspace文件来打开我们的工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开之后是这样子的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显然,cocoapods除了帮我们下载AFNetworking这个库之外,还帮我们下载了这个库所依赖的iOS框架,如CoreGraphics.framework等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很cool!否则,平常,我们还要自己去关联这些依赖库,现在,cocoapods帮我们做了!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 在项目中使用库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我们的原项目中,任意一个类文件,如ViewController.h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入 #import "AFNetworking.h", 然后编译,结果Succeeded,说明库导入没有问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +1135,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1000,13 +1153,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1015,6 +1173,8 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1023,11 +1183,94 @@
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="13385800"/>
+          <a:ext cx="3251200" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="22669500"/>
+          <a:ext cx="10617200" cy="5651500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2921,19 +3164,250 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="C8" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="D11" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="D12" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="C14" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="D21" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="D22" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="D23" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="D24" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="D28" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="D29" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="D30" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="C33" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="D35" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="D36" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="D37" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="D38" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="D40" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="D42" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="D43" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="D44" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="D45" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="C103" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="C104" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Document/iOS/CocoaPods/CocoaPods安装与使用.xlsx
+++ b/Document/iOS/CocoaPods/CocoaPods安装与使用.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25280" windowHeight="15300" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="3560" yWindow="280" windowWidth="25280" windowHeight="15300" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Homebrew" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Gem" sheetId="2" r:id="rId4"/>
     <sheet name="cocoapods安装" sheetId="1" r:id="rId5"/>
     <sheet name="cocoapods的使用" sheetId="6" r:id="rId6"/>
+    <sheet name="工作表1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="327">
   <si>
     <t>安装RVM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -972,89 +973,113 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>Downloading dependencies</t>
+  </si>
+  <si>
+    <t>Installing AFNetworking (3.1.0)</t>
+  </si>
+  <si>
+    <t>Generating Pods project</t>
+  </si>
+  <si>
+    <t>Integrating client project</t>
+  </si>
+  <si>
+    <t>[!] Please close any current Xcode sessions and use `TestCocoapods.xcworkspace` for this project from now on.</t>
+  </si>
+  <si>
+    <t>Sending stats</t>
+  </si>
+  <si>
+    <t>Pod installation complete! There is 1 dependency from the Podfile and 1 total pod installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sc:TestCocoapods samtsang$ </t>
+  </si>
+  <si>
+    <t>再次执行pod install命令,成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 打开工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当使用cocoapods之后,原来的工程目录下面多了一下几个文件和文件夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Podfile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Podfile.lock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pods/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestCocoapods.xcworkspace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从3中pod install成功后的提示也很清楚,我们以后就通过这个新增的.xcworkspace文件来打开我们的工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开之后是这样子的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显然,cocoapods除了帮我们下载AFNetworking这个库之外,还帮我们下载了这个库所依赖的iOS框架,如CoreGraphics.framework等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很cool!否则,平常,我们还要自己去关联这些依赖库,现在,cocoapods帮我们做了!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 在项目中使用库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我们的原项目中,任意一个类文件,如ViewController.h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入 #import "AFNetworking.h", 然后编译,结果Succeeded,说明库导入没有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pods</t>
+  </si>
+  <si>
+    <t>方式2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>target "TestCocoapods" do</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>Downloading dependencies</t>
-  </si>
-  <si>
-    <t>Installing AFNetworking (3.1.0)</t>
-  </si>
-  <si>
-    <t>Generating Pods project</t>
-  </si>
-  <si>
-    <t>Integrating client project</t>
-  </si>
-  <si>
-    <t>[!] Please close any current Xcode sessions and use `TestCocoapods.xcworkspace` for this project from now on.</t>
-  </si>
-  <si>
-    <t>Sending stats</t>
-  </si>
-  <si>
-    <t>Pod installation complete! There is 1 dependency from the Podfile and 1 total pod installed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sc:TestCocoapods samtsang$ </t>
-  </si>
-  <si>
-    <t>再次执行pod install命令,成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 打开工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当使用cocoapods之后,原来的工程目录下面多了一下几个文件和文件夹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Podfile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Podfile.lock</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pods/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestCocoapods.xcworkspace</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从3中pod install成功后的提示也很清楚,我们以后就通过这个新增的.xcworkspace文件来打开我们的工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开之后是这样子的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显然,cocoapods除了帮我们下载AFNetworking这个库之外,还帮我们下载了这个库所依赖的iOS框架,如CoreGraphics.framework等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很cool!否则,平常,我们还要自己去关联这些依赖库,现在,cocoapods帮我们做了!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 在项目中使用库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我们的原项目中,任意一个类文件,如ViewController.h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入 #import "AFNetworking.h", 然后编译,结果Succeeded,说明库导入没有问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>target 'TestCocoapods' do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform :ios, '7.0'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>def pods</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1135,8 +1160,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1164,7 +1197,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="29">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1175,6 +1208,10 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1185,6 +1222,10 @@
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1198,13 +1239,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1236,13 +1277,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3164,7 +3205,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D104"/>
+  <dimension ref="B3:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3263,9 +3304,14 @@
         <v>296</v>
       </c>
     </row>
+    <row r="27" spans="2:4">
+      <c r="C27" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
     <row r="28" spans="2:4">
       <c r="D28" s="3" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -3280,127 +3326,171 @@
     </row>
     <row r="31" spans="2:4">
       <c r="D31" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="D35" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="D36" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="D37" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="D39" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="D40" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="D46" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="D47" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="C33" s="1" t="s">
+    <row r="48" spans="3:4">
+      <c r="D48" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="D49" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="D50" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="D52" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="D53" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="D54" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="D55" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="D35" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="D36" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="D37" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="D38" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="D39" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="D40" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="D42" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="D43" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="D44" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="D45" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="1" t="s">
+    <row r="60" spans="2:4">
+      <c r="C60" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="1" t="s">
+    <row r="61" spans="2:4">
+      <c r="C61" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="1" t="s">
+    <row r="62" spans="2:4">
+      <c r="C62" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="1" t="s">
+    <row r="63" spans="2:4">
+      <c r="C63" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="1" t="s">
+    <row r="64" spans="2:4">
+      <c r="C64" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="3" t="s">
+    <row r="67" spans="3:3">
+      <c r="C67" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="1" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="1" t="s">
+    <row r="70" spans="3:3">
+      <c r="C70" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="1" t="s">
+    <row r="71" spans="3:3">
+      <c r="C71" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="1" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="1" t="s">
+    <row r="113" spans="3:3">
+      <c r="C113" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
-      <c r="C103" s="1" t="s">
+    <row r="114" spans="3:3">
+      <c r="C114" s="1" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="C104" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -3414,4 +3504,25 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>